--- a/medicine/Sexualité et sexologie/Dona_Speir/Dona_Speir.xlsx
+++ b/medicine/Sexualité et sexologie/Dona_Speir/Dona_Speir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dona Speir, née le 7 février 1964 à Norwalk, est un mannequin américain, qui a aussi été actrice dans des films de série B.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle s'expose dans l'édition américaine de la revue Playboy en mars 1984, et ensuite dans d'autres éditions[1]. Cela lui vaut d'être invitée à jouer dans des séries télévisées et plusieurs films d'Andy Sidaris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'expose dans l'édition américaine de la revue Playboy en mars 1984, et ensuite dans d'autres éditions. Cela lui vaut d'être invitée à jouer dans des séries télévisées et plusieurs films d'Andy Sidaris.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Cinéma
-1985 : Série noire pour une nuit blanche (Into the Night) de John Landis : Miss Western Europe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dona_Speir</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dona_Speir</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1985 : Série noire pour une nuit blanche (Into the Night) de John Landis : Miss Western Europe
 1985 : La Taule en délire (Doin' Time) de George Mendeluk : responsable des cartes
 1987 : Piège mortel à Hawaï (Hard Ticket to Hawaii) d'Andy Sidaris : Donna
 1987 : Dragnet de Tom Mankiewicz : femme appât
@@ -557,9 +608,43 @@
 1990 : Guns (en) d'Andy Sidaris : Donna Hamilton
 1991 : Connection Hawaï (en) d'Andy Sidaris : Donna Hamilton
 1992 : Hard Hunted (en) d'Andy Sidaris : Donna Hamilton
-1993 : Fit to Kill (en) d'Andy Sidaris : Donna Hamilton
-Télévision
-1983-1984 : Matt Houston, série télévisée, trois épisodes : 2.12 Target: Miss World : Miss Berlin ; 2.17 The Bikini Murders : un mannequin ; 3.8 The High Fashion Murders : un mannequin
+1993 : Fit to Kill (en) d'Andy Sidaris : Donna Hamilton</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dona_Speir</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dona_Speir</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1983-1984 : Matt Houston, série télévisée, trois épisodes : 2.12 Target: Miss World : Miss Berlin ; 2.17 The Bikini Murders : un mannequin ; 3.8 The High Fashion Murders : un mannequin
 1984 : Automan, série télévisée, épisode 1.13 : Club Ten : fille en bikini
 1984 : Mike Hammer, série télévisée, deux épisodes : 1.10 Satan, Cyanide and Murder : Gwen ; et 2.6 Bonecrunch : Alma
 1986 : K 2000, série télévisée, un épisode, 4.17 Knight of a Thousand Devils : Bambi
